--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,36 +755,39 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -791,26 +798,29 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +830,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -832,26 +842,29 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,19 +966,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -975,8 +995,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1100</v>
       </c>
       <c r="N18" s="3">
         <v>-1100</v>
       </c>
       <c r="O18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1187,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1231,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>5200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,8 +1277,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>300</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1253,10 +1293,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
       </c>
       <c r="G26" s="3">
         <v>-1200</v>
       </c>
       <c r="H26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
       </c>
       <c r="G27" s="3">
         <v>-1200</v>
       </c>
       <c r="H27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,34 +1571,37 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>20600</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6600</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1200</v>
       </c>
       <c r="G33" s="3">
         <v>-1200</v>
       </c>
       <c r="H33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1200</v>
       </c>
       <c r="G35" s="3">
         <v>-1200</v>
       </c>
       <c r="H35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1904,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,34 +2052,37 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2800</v>
       </c>
       <c r="J43" s="3">
         <v>2800</v>
       </c>
       <c r="K43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L43" s="3">
         <v>2700</v>
@@ -1998,27 +2091,30 @@
         <v>2700</v>
       </c>
       <c r="N43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
@@ -2027,7 +2123,7 @@
         <v>500</v>
       </c>
       <c r="J44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
@@ -2039,54 +2135,60 @@
         <v>700</v>
       </c>
       <c r="N44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="O44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4500</v>
       </c>
       <c r="I45" s="3">
         <v>4500</v>
       </c>
       <c r="J45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>900</v>
       </c>
       <c r="L45" s="3">
         <v>900</v>
       </c>
       <c r="M45" s="3">
+        <v>900</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2094,40 +2196,43 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>4400</v>
       </c>
       <c r="O46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>400</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>20100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>8700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>8800</v>
       </c>
       <c r="M49" s="3">
         <v>8800</v>
       </c>
       <c r="N49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="O49" s="3">
         <v>9100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>43100</v>
       </c>
       <c r="L54" s="3">
         <v>43100</v>
       </c>
       <c r="M54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="N54" s="3">
         <v>42900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,90 +2618,97 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>15400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>16300</v>
       </c>
       <c r="O57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>43700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2582,78 +2719,84 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>1000</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>1100</v>
       </c>
       <c r="J59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>41100</v>
       </c>
       <c r="N59" s="3">
         <v>41100</v>
       </c>
       <c r="O59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="P59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>60100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -2676,7 +2819,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2693,16 +2836,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
         <v>60300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-23700</v>
       </c>
       <c r="H76" s="3">
         <v>-23700</v>
       </c>
       <c r="I76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-21500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-13000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1200</v>
       </c>
       <c r="G81" s="3">
         <v>-1200</v>
       </c>
       <c r="H81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,37 +3627,38 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3687,37 +3904,40 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3753,8 +3974,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3766,16 +3987,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,13 +4083,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3889,16 +4119,19 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4090,42 +4336,45 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>600</v>
       </c>
       <c r="O100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4181,24 +4433,27 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,39 +762,42 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -801,40 +808,43 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -845,26 +855,29 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,11 +1000,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -998,8 +1018,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1108,46 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1100</v>
       </c>
       <c r="O18" s="3">
         <v>-1100</v>
       </c>
       <c r="P18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,84 +1224,90 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1280,8 +1320,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>300</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1296,10 +1336,10 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1362,46 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1503,46 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
       </c>
       <c r="H26" s="3">
         <v>-1200</v>
       </c>
       <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1550,46 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1200</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
       </c>
       <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,37 +1632,40 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>20600</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6600</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,40 +1788,43 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1832,46 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1200</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
       </c>
       <c r="I33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +1926,98 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1200</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
       </c>
       <c r="I35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1994,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,37 +2145,40 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2800</v>
       </c>
       <c r="K43" s="3">
         <v>2800</v>
       </c>
       <c r="L43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M43" s="3">
         <v>2700</v>
@@ -2094,13 +2187,16 @@
         <v>2700</v>
       </c>
       <c r="O43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2110,14 +2206,14 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -2126,7 +2222,7 @@
         <v>500</v>
       </c>
       <c r="K44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>700</v>
@@ -2138,57 +2234,63 @@
         <v>700</v>
       </c>
       <c r="O44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="P44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4500</v>
       </c>
       <c r="J45" s="3">
         <v>4500</v>
       </c>
       <c r="K45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>900</v>
       </c>
       <c r="M45" s="3">
         <v>900</v>
       </c>
       <c r="N45" s="3">
+        <v>900</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,40 +2301,43 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>4400</v>
       </c>
       <c r="P46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>400</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>20100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,41 +2441,44 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>8700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>8800</v>
       </c>
       <c r="N49" s="3">
         <v>8800</v>
       </c>
       <c r="O49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P49" s="3">
         <v>9100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2462,41 +2582,44 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2674,46 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>43100</v>
       </c>
       <c r="M54" s="3">
         <v>43100</v>
       </c>
       <c r="N54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="O54" s="3">
         <v>42900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,87 +2759,93 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>15400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>16300</v>
       </c>
       <c r="P57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>43700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,81 +2859,87 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>41100</v>
       </c>
       <c r="O59" s="3">
         <v>41100</v>
       </c>
       <c r="P59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>60100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -2822,7 +2965,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,8 +2996,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
         <v>60300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-23700</v>
       </c>
       <c r="I76" s="3">
         <v>-23700</v>
       </c>
       <c r="J76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-21500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-13000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3770,46 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1200</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
       </c>
       <c r="I81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>700</v>
       </c>
       <c r="N83" s="3">
         <v>700</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,37 +4124,40 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3977,8 +4198,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3990,16 +4211,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +4313,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4122,16 +4352,19 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,45 +4585,48 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>600</v>
       </c>
       <c r="P100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4436,24 +4688,27 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,25 +768,28 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,14 +799,14 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -811,26 +817,29 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,14 +849,14 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -858,26 +867,29 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,11 +1022,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1021,8 +1040,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,43 +1137,46 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,43 +1187,46 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1100</v>
       </c>
       <c r="P18" s="3">
         <v>-1100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,40 +1260,43 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,44 +1306,47 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1362,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>300</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1339,10 +1378,10 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,43 +1407,46 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,43 +1557,46 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1200</v>
       </c>
       <c r="I26" s="3">
         <v>-1200</v>
       </c>
       <c r="J26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,43 +1607,46 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1200</v>
       </c>
       <c r="I27" s="3">
         <v>-1200</v>
       </c>
       <c r="J27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,29 +1706,29 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>20600</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,40 +1860,43 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,43 +1907,46 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1200</v>
       </c>
       <c r="I33" s="3">
         <v>-1200</v>
       </c>
       <c r="J33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1929,95 +2007,101 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1200</v>
       </c>
       <c r="I35" s="3">
         <v>-1200</v>
       </c>
       <c r="J35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2084,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2159,29 +2251,29 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2800</v>
       </c>
       <c r="L43" s="3">
         <v>2800</v>
       </c>
       <c r="M43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="N43" s="3">
         <v>2700</v>
@@ -2190,13 +2282,16 @@
         <v>2700</v>
       </c>
       <c r="P43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2209,14 +2304,14 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
@@ -2225,7 +2320,7 @@
         <v>500</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>700</v>
@@ -2237,13 +2332,16 @@
         <v>700</v>
       </c>
       <c r="P44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="Q44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,44 +2351,47 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4500</v>
       </c>
       <c r="K45" s="3">
         <v>4500</v>
       </c>
       <c r="L45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M45" s="3">
         <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
       </c>
       <c r="O45" s="3">
+        <v>900</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2304,40 +2405,43 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>4400</v>
       </c>
       <c r="Q46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,44 +2501,47 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>400</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>20100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2444,41 +2554,44 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>8700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>8800</v>
       </c>
       <c r="O49" s="3">
         <v>8800</v>
       </c>
       <c r="P49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>9100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2585,41 +2704,44 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,43 +2802,46 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>43100</v>
       </c>
       <c r="N54" s="3">
         <v>43100</v>
       </c>
       <c r="O54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="P54" s="3">
         <v>42900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,43 +2892,46 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>15400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>16300</v>
       </c>
       <c r="Q57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,44 +2941,47 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>43700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2862,37 +2998,40 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>41100</v>
       </c>
       <c r="P59" s="3">
         <v>41100</v>
       </c>
       <c r="Q59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="R59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,46 +3039,49 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>60100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>55500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2956,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -2968,7 +3110,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,8 +3144,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,46 +3339,49 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>60300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,46 +3609,49 @@
         <v>-9500</v>
       </c>
       <c r="E72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,46 +3809,49 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-23700</v>
       </c>
       <c r="J76" s="3">
         <v>-23700</v>
       </c>
       <c r="K76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-21500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3773,43 +3967,46 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1200</v>
       </c>
       <c r="I81" s="3">
         <v>-1200</v>
       </c>
       <c r="J81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,32 +4036,32 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>700</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4127,37 +4343,40 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,34 +4394,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4214,16 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4327,8 +4556,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4355,16 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4588,37 +4833,40 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>600</v>
       </c>
       <c r="Q100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4628,8 +4876,8 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4691,24 +4942,27 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,25 +775,28 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,14 +809,14 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -820,26 +827,29 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,14 +862,14 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -870,26 +880,29 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1025,11 +1045,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1043,8 +1063,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1140,43 +1167,46 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,43 +1220,46 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q18" s="3">
         <v>-1100</v>
       </c>
       <c r="R18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,40 +1297,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1309,44 +1346,47 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1365,8 +1405,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>300</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1381,10 +1421,10 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1410,43 +1453,46 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1560,48 +1612,51 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1200</v>
       </c>
       <c r="J26" s="3">
         <v>-1200</v>
       </c>
       <c r="K26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1610,43 +1665,46 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1200</v>
       </c>
       <c r="J27" s="3">
         <v>-1200</v>
       </c>
       <c r="K27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,29 +1770,29 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>20600</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,45 +1933,48 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1910,43 +1983,46 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1200</v>
       </c>
       <c r="J33" s="3">
         <v>-1200</v>
       </c>
       <c r="K33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2010,98 +2089,104 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1200</v>
       </c>
       <c r="J35" s="3">
         <v>-1200</v>
       </c>
       <c r="K35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2173,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2254,29 +2347,29 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2800</v>
       </c>
       <c r="M43" s="3">
         <v>2800</v>
       </c>
       <c r="N43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="O43" s="3">
         <v>2700</v>
@@ -2285,13 +2378,16 @@
         <v>2700</v>
       </c>
       <c r="Q43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2307,14 +2403,14 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
@@ -2323,7 +2419,7 @@
         <v>500</v>
       </c>
       <c r="M44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>700</v>
@@ -2335,13 +2431,16 @@
         <v>700</v>
       </c>
       <c r="Q44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="R44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2354,44 +2453,47 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>4500</v>
       </c>
       <c r="L45" s="3">
         <v>4500</v>
       </c>
       <c r="M45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N45" s="3">
         <v>1100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>900</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2408,40 +2510,43 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>4400</v>
       </c>
       <c r="R46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2504,44 +2612,47 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>400</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>20100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2557,41 +2668,44 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>8700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>8800</v>
       </c>
       <c r="P49" s="3">
         <v>8800</v>
       </c>
       <c r="Q49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R49" s="3">
         <v>9100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2707,41 +2827,44 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2805,43 +2931,46 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>43100</v>
       </c>
       <c r="O54" s="3">
         <v>43100</v>
       </c>
       <c r="P54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>42900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,43 +3026,46 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>15400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>16300</v>
       </c>
       <c r="R57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2944,44 +3078,47 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>43700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3001,87 +3138,93 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1100</v>
       </c>
       <c r="M59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>41100</v>
       </c>
       <c r="Q59" s="3">
         <v>41100</v>
       </c>
       <c r="R59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="S59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>60100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3101,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -3113,7 +3256,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3147,8 +3293,8 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>100</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>60300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3612,46 +3786,49 @@
         <v>-9500</v>
       </c>
       <c r="F72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-23700</v>
       </c>
       <c r="K76" s="3">
         <v>-23700</v>
       </c>
       <c r="L76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="M76" s="3">
         <v>-21500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-13000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3970,43 +4165,46 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1200</v>
       </c>
       <c r="J81" s="3">
         <v>-1200</v>
       </c>
       <c r="K81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4039,32 +4238,32 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>700</v>
       </c>
       <c r="P83" s="3">
         <v>700</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,13 +4539,16 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4346,37 +4563,40 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4421,11 +4642,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4437,16 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4559,8 +4789,8 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4587,16 +4817,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4836,37 +5082,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>600</v>
       </c>
       <c r="R100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4879,8 +5128,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4945,24 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,25 +782,28 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,14 +819,14 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -830,26 +837,29 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,14 +875,14 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -883,26 +893,29 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,11 +1068,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1066,8 +1086,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1178,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1170,43 +1197,46 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,43 +1253,46 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1100</v>
       </c>
       <c r="R18" s="3">
         <v>-1100</v>
       </c>
       <c r="S18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,40 +1334,43 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,44 +1386,47 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1408,8 +1448,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>300</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1424,10 +1464,10 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1456,43 +1499,46 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,13 +1646,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1615,48 +1667,51 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
       </c>
       <c r="K26" s="3">
         <v>-1200</v>
       </c>
       <c r="L26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1668,43 +1723,46 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1200</v>
       </c>
       <c r="K27" s="3">
         <v>-1200</v>
       </c>
       <c r="L27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,29 +1834,29 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>20600</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,45 +2006,48 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1986,43 +2059,46 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1200</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
       </c>
       <c r="L33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,13 +2150,16 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2092,101 +2171,107 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1200</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
       </c>
       <c r="L35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2263,16 +2350,16 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2350,29 +2443,29 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2800</v>
       </c>
       <c r="N43" s="3">
         <v>2800</v>
       </c>
       <c r="O43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="P43" s="3">
         <v>2700</v>
@@ -2381,13 +2474,16 @@
         <v>2700</v>
       </c>
       <c r="R43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2406,14 +2502,14 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>500</v>
@@ -2422,7 +2518,7 @@
         <v>500</v>
       </c>
       <c r="N44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>700</v>
@@ -2434,13 +2530,16 @@
         <v>700</v>
       </c>
       <c r="R44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="S44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2456,44 +2555,47 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>4500</v>
       </c>
       <c r="M45" s="3">
         <v>4500</v>
       </c>
       <c r="N45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O45" s="3">
         <v>1100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
+        <v>900</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2513,40 +2615,43 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>4400</v>
       </c>
       <c r="S46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2615,44 +2723,47 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>400</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>20100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2671,41 +2782,44 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>8700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>8800</v>
       </c>
       <c r="Q49" s="3">
         <v>8800</v>
       </c>
       <c r="R49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="S49" s="3">
         <v>9100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2830,41 +2950,44 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2934,43 +3060,46 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>43100</v>
       </c>
       <c r="P54" s="3">
         <v>43100</v>
       </c>
       <c r="Q54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="R54" s="3">
         <v>42900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,48 +3160,51 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>15400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>16300</v>
       </c>
       <c r="S57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -3081,44 +3215,47 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>43700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3141,37 +3278,40 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>1000</v>
       </c>
       <c r="L59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1100</v>
       </c>
       <c r="N59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>41100</v>
       </c>
       <c r="R59" s="3">
         <v>41100</v>
       </c>
       <c r="S59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="T59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3319,55 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>60100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3247,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -3259,7 +3402,7 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3296,8 +3442,8 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>60300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3789,46 +3963,49 @@
         <v>-9500</v>
       </c>
       <c r="G72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,52 +4181,55 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-23700</v>
       </c>
       <c r="L76" s="3">
         <v>-23700</v>
       </c>
       <c r="M76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="N76" s="3">
         <v>-21500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,71 +4281,77 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4168,43 +4363,46 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1200</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>
       </c>
       <c r="L81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4241,32 +4440,32 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>700</v>
       </c>
       <c r="Q83" s="3">
         <v>700</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,17 +4756,20 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -4566,37 +4783,40 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,11 +4866,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4792,8 +5022,8 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4820,16 +5050,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5085,37 +5331,40 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>600</v>
       </c>
       <c r="S100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5131,8 +5380,8 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5200,24 +5452,27 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,25 +789,28 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,14 +829,14 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -840,26 +847,29 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,14 +888,14 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -896,26 +906,29 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1071,11 +1091,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1089,8 +1109,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,43 +1227,46 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1256,43 +1286,46 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1100</v>
       </c>
       <c r="S18" s="3">
         <v>-1100</v>
       </c>
       <c r="T18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,40 +1371,43 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1389,44 +1426,47 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1451,8 +1491,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>300</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1467,10 +1507,10 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1502,43 +1545,46 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1670,43 +1722,46 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1200</v>
       </c>
       <c r="L26" s="3">
         <v>-1200</v>
       </c>
       <c r="M26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1726,43 +1781,46 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1200</v>
       </c>
       <c r="L27" s="3">
         <v>-1200</v>
       </c>
       <c r="M27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,29 +1898,29 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>20600</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2009,40 +2079,43 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2062,43 +2135,46 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1200</v>
       </c>
       <c r="L33" s="3">
         <v>-1200</v>
       </c>
       <c r="M33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2174,104 +2253,110 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1200</v>
       </c>
       <c r="L35" s="3">
         <v>-1200</v>
       </c>
       <c r="M35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2353,16 +2440,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2446,29 +2539,29 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2800</v>
       </c>
       <c r="O43" s="3">
         <v>2800</v>
       </c>
       <c r="P43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Q43" s="3">
         <v>2700</v>
@@ -2477,42 +2570,45 @@
         <v>2700</v>
       </c>
       <c r="S43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>500</v>
@@ -2521,7 +2617,7 @@
         <v>500</v>
       </c>
       <c r="O44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>700</v>
@@ -2533,18 +2629,21 @@
         <v>700</v>
       </c>
       <c r="S44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2558,44 +2657,47 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>4500</v>
       </c>
       <c r="N45" s="3">
         <v>4500</v>
       </c>
       <c r="O45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P45" s="3">
         <v>1100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>900</v>
       </c>
       <c r="Q45" s="3">
         <v>900</v>
       </c>
       <c r="R45" s="3">
+        <v>900</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2618,40 +2720,43 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>4400</v>
       </c>
       <c r="T46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,100 +2834,106 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>400</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>20100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>8700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>8800</v>
       </c>
       <c r="R49" s="3">
         <v>8800</v>
       </c>
       <c r="S49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="T49" s="3">
         <v>9100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3063,43 +3189,46 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>43100</v>
       </c>
       <c r="Q54" s="3">
         <v>43100</v>
       </c>
       <c r="R54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="S54" s="3">
         <v>42900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,51 +3294,54 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>15400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>16300</v>
       </c>
       <c r="T57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -3218,44 +3352,47 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>43700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3281,37 +3418,40 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>41100</v>
       </c>
       <c r="S59" s="3">
         <v>41100</v>
       </c>
       <c r="T59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="U59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3322,52 +3462,55 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>60100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>61800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>59700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3393,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -3405,7 +3548,7 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3422,28 +3565,31 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3658,52 +3816,55 @@
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>60300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>57600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3966,46 +4140,49 @@
         <v>-9500</v>
       </c>
       <c r="H72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,52 +4370,55 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-23700</v>
       </c>
       <c r="M76" s="3">
         <v>-23700</v>
       </c>
       <c r="N76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="O76" s="3">
         <v>-21500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-13000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4366,43 +4561,46 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1200</v>
       </c>
       <c r="L81" s="3">
         <v>-1200</v>
       </c>
       <c r="M81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4443,32 +4642,32 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
       </c>
       <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>700</v>
       </c>
       <c r="R83" s="3">
         <v>700</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,11 +4985,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4786,37 +5003,40 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4869,11 +5090,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4885,16 +5106,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5025,8 +5255,8 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5053,16 +5283,19 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,11 +5562,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5334,37 +5580,40 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>600</v>
       </c>
       <c r="T100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5383,8 +5632,8 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5455,24 +5707,27 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,25 +795,28 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,14 +838,14 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -850,26 +856,29 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,14 +900,14 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -909,26 +918,29 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,11 +1113,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1112,8 +1131,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1230,43 +1256,46 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1289,43 +1318,46 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1100</v>
       </c>
       <c r="T18" s="3">
         <v>-1100</v>
       </c>
       <c r="U18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1374,40 +1407,43 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,49 +1465,52 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1494,8 +1533,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>300</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1510,10 +1549,10 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1524,8 +1563,11 @@
       <c r="U22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1548,43 +1590,46 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1725,43 +1776,46 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1200</v>
       </c>
       <c r="M26" s="3">
         <v>-1200</v>
       </c>
       <c r="N26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1784,43 +1838,46 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1200</v>
       </c>
       <c r="M27" s="3">
         <v>-1200</v>
       </c>
       <c r="N27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,29 +1961,29 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>20600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2082,40 +2151,43 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2138,43 +2210,46 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1200</v>
       </c>
       <c r="M33" s="3">
         <v>-1200</v>
       </c>
       <c r="N33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2256,107 +2334,113 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1200</v>
       </c>
       <c r="M35" s="3">
         <v>-1200</v>
       </c>
       <c r="N35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2443,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2460,8 +2546,11 @@
       <c r="U41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2542,29 +2634,29 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2800</v>
       </c>
       <c r="P43" s="3">
         <v>2800</v>
       </c>
       <c r="Q43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="R43" s="3">
         <v>2700</v>
@@ -2573,13 +2665,16 @@
         <v>2700</v>
       </c>
       <c r="T43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2608,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
@@ -2620,7 +2715,7 @@
         <v>500</v>
       </c>
       <c r="P44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>700</v>
@@ -2632,21 +2727,24 @@
         <v>700</v>
       </c>
       <c r="T44" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="U44" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2660,44 +2758,47 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>4500</v>
       </c>
       <c r="O45" s="3">
         <v>4500</v>
       </c>
       <c r="P45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>900</v>
       </c>
       <c r="R45" s="3">
         <v>900</v>
       </c>
       <c r="S45" s="3">
+        <v>900</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2723,40 +2824,43 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>4400</v>
       </c>
       <c r="U46" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2837,44 +2944,47 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>400</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>20100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2903,37 +3013,40 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>8700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>8800</v>
       </c>
       <c r="S49" s="3">
         <v>8800</v>
       </c>
       <c r="T49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="U49" s="3">
         <v>9100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3080,37 +3199,40 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3192,43 +3317,46 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>43100</v>
       </c>
       <c r="R54" s="3">
         <v>43100</v>
       </c>
       <c r="S54" s="3">
+        <v>43100</v>
+      </c>
+      <c r="T54" s="3">
         <v>42900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3297,43 +3427,46 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>15400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>16300</v>
       </c>
       <c r="U57" s="3">
         <v>16300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,8 +3476,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -3355,44 +3488,47 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>43700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>45500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3421,37 +3557,40 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O59" s="3">
         <v>1100</v>
       </c>
       <c r="P59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>41100</v>
       </c>
       <c r="T59" s="3">
         <v>41100</v>
       </c>
       <c r="U59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="V59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3465,52 +3604,55 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>60100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>61800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>59700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>55500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>57600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3539,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -3551,7 +3693,7 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3819,52 +3976,55 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
         <v>60300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,13 +4292,16 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="E72" s="3">
         <v>-9500</v>
@@ -4143,46 +4316,49 @@
         <v>-9500</v>
       </c>
       <c r="I72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4373,52 +4558,55 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-24100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-23700</v>
       </c>
       <c r="N76" s="3">
         <v>-23700</v>
       </c>
       <c r="O76" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="P76" s="3">
         <v>-21500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-13000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4564,43 +4758,46 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1200</v>
       </c>
       <c r="M81" s="3">
         <v>-1200</v>
       </c>
       <c r="N81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4645,32 +4843,32 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>700</v>
       </c>
       <c r="S83" s="3">
         <v>700</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4988,11 +5204,11 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5006,37 +5222,40 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5093,11 +5313,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5109,16 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5258,8 +5487,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5286,16 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5565,11 +5810,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5583,37 +5828,40 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>600</v>
       </c>
       <c r="U100" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5635,8 +5883,8 @@
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5710,24 +5961,27 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>ADMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,25 +806,31 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,17 +855,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -859,26 +873,32 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,17 +923,17 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -921,26 +941,32 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,14 +1156,14 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1134,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1259,43 +1313,49 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1321,43 +1381,49 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-2000</v>
       </c>
       <c r="S18" s="3">
         <v>-1000</v>
       </c>
       <c r="T18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1410,48 +1478,54 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1468,55 +1542,61 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-1500</v>
       </c>
       <c r="U21" s="3">
         <v>-400</v>
       </c>
       <c r="V21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1536,11 +1616,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1552,13 +1632,13 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1566,8 +1646,14 @@
       <c r="V22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1593,51 +1679,57 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2800</v>
       </c>
       <c r="S23" s="3">
         <v>-1300</v>
       </c>
       <c r="T23" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U23" s="3">
         <v>-1300</v>
       </c>
       <c r="V23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1779,43 +1883,49 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2800</v>
       </c>
       <c r="S26" s="3">
         <v>-1300</v>
       </c>
       <c r="T26" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U26" s="3">
         <v>-1300</v>
       </c>
       <c r="V26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1841,43 +1951,49 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2800</v>
       </c>
       <c r="S27" s="3">
         <v>-1300</v>
       </c>
       <c r="T27" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U27" s="3">
         <v>-1300</v>
       </c>
       <c r="V27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,32 +2086,32 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>20600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2154,40 +2294,46 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2213,43 +2359,49 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2800</v>
       </c>
       <c r="S33" s="3">
         <v>-1300</v>
       </c>
       <c r="T33" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U33" s="3">
         <v>-1300</v>
       </c>
       <c r="V33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2337,110 +2495,122 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2800</v>
       </c>
       <c r="S35" s="3">
         <v>-1300</v>
       </c>
       <c r="T35" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U35" s="3">
         <v>-1300</v>
       </c>
       <c r="V35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2532,25 +2706,31 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2900</v>
       </c>
       <c r="P43" s="3">
         <v>2800</v>
       </c>
       <c r="Q43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="R43" s="3">
-        <v>2700</v>
-      </c>
       <c r="S43" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="T43" s="3">
         <v>2700</v>
       </c>
       <c r="U43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2706,22 +2898,22 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>500</v>
       </c>
       <c r="Q44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="R44" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="S44" s="3">
         <v>700</v>
@@ -2730,27 +2922,33 @@
         <v>700</v>
       </c>
       <c r="U44" s="3">
+        <v>700</v>
+      </c>
+      <c r="V44" s="3">
+        <v>700</v>
+      </c>
+      <c r="W44" s="3">
         <v>1400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2761,44 +2959,50 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2827,40 +3031,46 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3131,82 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>20100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>21600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>23300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>23100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>29600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>29800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>30100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>30600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>32400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3016,37 +3238,43 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>8700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>9100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>9200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3202,37 +3442,43 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
+        <v>400</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3320,43 +3572,49 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>36200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>38500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>41200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>40600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>43500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>43100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>43100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>42900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>46000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>46900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3430,43 +3692,49 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>15400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>16100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>15300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>15400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>14900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>14300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>14100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>16300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3479,11 +3747,11 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3491,52 +3759,58 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>43700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>45300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>47500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>45500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>42800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3560,37 +3834,43 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>42600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>41600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>41100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>41100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3607,52 +3887,58 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>60100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>62000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>64800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>61800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>59700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>57700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>56100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>55500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>57600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3684,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -3696,10 +3982,10 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4271,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3979,52 +4295,58 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
         <v>60300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>62200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>65000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>62000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>59700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>57700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>56100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>55500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>57600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,10 +4652,10 @@
         <v>-9600</v>
       </c>
       <c r="E72" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="F72" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="G72" s="3">
         <v>-9500</v>
@@ -4319,46 +4667,52 @@
         <v>-9500</v>
       </c>
       <c r="J72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-31700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-25400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-24100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-22700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-21400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-20000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4909,14 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4561,52 +4933,58 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-24100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-23700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-23700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-16200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-14600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-13000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-12600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-11600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-10400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4761,43 +5151,49 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2800</v>
       </c>
       <c r="S81" s="3">
         <v>-1300</v>
       </c>
       <c r="T81" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="U81" s="3">
         <v>-1300</v>
       </c>
       <c r="V81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,61 +5216,63 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
       </c>
       <c r="P83" s="3">
-        <v>2900</v>
+        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>700</v>
       </c>
       <c r="R83" s="3">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="S83" s="3">
         <v>700</v>
       </c>
       <c r="T83" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="U83" s="3">
         <v>700</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>700</v>
+      </c>
+      <c r="X83" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5207,14 +5641,14 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5225,37 +5659,43 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5316,14 +5758,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5332,16 +5774,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,37 +5918,43 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5518,16 +5978,22 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5813,14 +6305,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5831,66 +6323,72 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5964,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5973,15 +6477,21 @@
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
